--- a/Lab3HW/ganttCharts.xlsx
+++ b/Lab3HW/ganttCharts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="12045"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -42,10 +42,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,12 +101,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,21 +389,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" customWidth="1"/>
+    <col min="9" max="12" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
     <col min="14" max="16" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.7109375" customWidth="1"/>
-    <col min="19" max="27" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.85546875" customWidth="1"/>
+    <col min="31" max="31" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.85546875" customWidth="1"/>
+    <col min="33" max="33" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.7109375" customWidth="1"/>
+    <col min="35" max="35" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.140625" customWidth="1"/>
+    <col min="37" max="37" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.42578125" customWidth="1"/>
+    <col min="39" max="39" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.7109375" customWidth="1"/>
+    <col min="41" max="41" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -469,7 +489,292 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="Q19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="G26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="13:27" x14ac:dyDescent="0.25">
+      <c r="M33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>